--- a/Features.xlsx
+++ b/Features.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E468A1D7-921A-47E0-93EA-6EA39719F3A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B159F9F-DD13-45E6-99C1-C434142F238D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$101</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="177">
   <si>
     <t>字段名称</t>
   </si>
@@ -365,6 +368,192 @@
   </si>
   <si>
     <t>indicate whether ip_prov is same as cert_prov</t>
+  </si>
+  <si>
+    <t>transaction_hour</t>
+  </si>
+  <si>
+    <t>hour of transaction</t>
+  </si>
+  <si>
+    <t>diff_hour</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>avg_prev_amt</t>
+  </si>
+  <si>
+    <t>std_prev_amt</t>
+  </si>
+  <si>
+    <t>ip_prov_vs_prev</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>…………</t>
+  </si>
+  <si>
+    <t>num_prev_ip_prov</t>
+  </si>
+  <si>
+    <t>ip_prov_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>number of hours have passed since last transaction of this user</t>
+  </si>
+  <si>
+    <t>average of previous transaction amounts of this user</t>
+  </si>
+  <si>
+    <t>standard deviation of previous transaction amounts of this user</t>
+  </si>
+  <si>
+    <t>indicate whether the ip_prov of current transaction is same as previous transaction of this user</t>
+  </si>
+  <si>
+    <t>indicate the percentage of current transaction ip_prov among all transaction ip_prov of this user (e.g. 0.4, 0.5, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric (0~1), -1 indicating NA </t>
+  </si>
+  <si>
+    <t>-1,0,1 (-1 indicating NA)</t>
+  </si>
+  <si>
+    <t>indicate the number of distinct previously occurred ip_prov</t>
+  </si>
+  <si>
+    <t>numeric (-1 indicating NA)</t>
+  </si>
+  <si>
+    <t>min_prev_amt</t>
+  </si>
+  <si>
+    <t>max_prev_amt</t>
+  </si>
+  <si>
+    <t>maximum of previous transaction amounts of this user</t>
+  </si>
+  <si>
+    <t>minimum of previous transaction amounts of this user</t>
+  </si>
+  <si>
+    <t>transaction_dow</t>
+  </si>
+  <si>
+    <t>transaction day of week</t>
+  </si>
+  <si>
+    <t>transaction_dom</t>
+  </si>
+  <si>
+    <t>transaction day of month</t>
+  </si>
+  <si>
+    <t>diff_day</t>
+  </si>
+  <si>
+    <t>number of days haved passed since last transaction of this user</t>
+  </si>
+  <si>
+    <t>cert_prov_vs_prev</t>
+  </si>
+  <si>
+    <t>card_bin_prov_vs_prev</t>
+  </si>
+  <si>
+    <t>card_mobile_prov_vs_prev</t>
+  </si>
+  <si>
+    <t>card_cert_prov_vs_prev</t>
+  </si>
+  <si>
+    <t>province_vs_prev</t>
+  </si>
+  <si>
+    <t>ip_city_vs_prev</t>
+  </si>
+  <si>
+    <t>cert_city_vs_prev</t>
+  </si>
+  <si>
+    <t>card_bin_city_vs_prev</t>
+  </si>
+  <si>
+    <t>card_mobile_city_vs_prev</t>
+  </si>
+  <si>
+    <t>card_cert_city_vs_prev</t>
+  </si>
+  <si>
+    <t>city_vs_prev</t>
+  </si>
+  <si>
+    <t>client_ip_vs_prev</t>
+  </si>
+  <si>
+    <t>network_vs_prev</t>
+  </si>
+  <si>
+    <t>device_sign_vs_prev</t>
+  </si>
+  <si>
+    <t>info_1_vs_prev</t>
+  </si>
+  <si>
+    <t>info_2_vs_prev</t>
+  </si>
+  <si>
+    <t>is_one_people_vs_prev</t>
+  </si>
+  <si>
+    <t>mobile_oper_platform_vs_prev</t>
+  </si>
+  <si>
+    <t>operation_channel_vs_prev</t>
+  </si>
+  <si>
+    <t>pay_scene_vs_prev</t>
+  </si>
+  <si>
+    <t>card_cert_no_vs_prev</t>
+  </si>
+  <si>
+    <t>opposing_id_vs_prev</t>
+  </si>
+  <si>
+    <t>income_card_no_vs_prev</t>
+  </si>
+  <si>
+    <t>income_card_cert_no_vs_prev</t>
+  </si>
+  <si>
+    <t>income_card_mobile_vs_prev</t>
+  </si>
+  <si>
+    <t>income_card_bank_code_vs_prev</t>
+  </si>
+  <si>
+    <t>is_peer_pay_vs_prev</t>
+  </si>
+  <si>
+    <t>version_vs_prev</t>
+  </si>
+  <si>
+    <t>Done (training)</t>
+  </si>
+  <si>
+    <t>Done (test)</t>
   </si>
 </sst>
 </file>
@@ -414,7 +603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +640,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +707,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -524,6 +731,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,9 +1041,11 @@
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="119.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,16 +1058,28 @@
       <c r="D1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +1089,14 @@
       <c r="D3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +1106,14 @@
       <c r="D4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -877,8 +1123,14 @@
       <c r="D5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -891,8 +1143,14 @@
       <c r="D6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -902,8 +1160,14 @@
       <c r="D7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -916,8 +1180,14 @@
       <c r="D8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -930,8 +1200,14 @@
       <c r="D9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -941,8 +1217,14 @@
       <c r="D10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -952,8 +1234,14 @@
       <c r="D11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -963,8 +1251,14 @@
       <c r="D12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -974,8 +1268,14 @@
       <c r="D13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -988,8 +1288,14 @@
       <c r="D14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1002,8 +1308,14 @@
       <c r="D15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1013,8 +1325,14 @@
       <c r="D16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1024,8 +1342,14 @@
       <c r="D17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1038,8 +1362,14 @@
       <c r="D18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1052,8 +1382,14 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1066,8 +1402,14 @@
       <c r="D20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1077,8 +1419,14 @@
       <c r="D21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1088,8 +1436,14 @@
       <c r="D22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1099,8 +1453,14 @@
       <c r="D23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1110,8 +1470,14 @@
       <c r="D24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1121,8 +1487,14 @@
       <c r="D25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1132,8 +1504,14 @@
       <c r="D26" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1143,8 +1521,14 @@
       <c r="D27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1154,8 +1538,14 @@
       <c r="D28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1165,8 +1555,14 @@
       <c r="D29" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1176,8 +1572,14 @@
       <c r="D30" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1187,8 +1589,14 @@
       <c r="D31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1198,8 +1606,14 @@
       <c r="D32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1209,8 +1623,14 @@
       <c r="D33" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1220,8 +1640,14 @@
       <c r="D34" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1231,161 +1657,1068 @@
       <c r="D35" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C36" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D48" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D49" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D50" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D51" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D52" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D53" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D54" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D55" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D56" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D57" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D58" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D59" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D60" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D61" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D62" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D63" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D64" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>113</v>
       </c>
+      <c r="D65" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" t="s">
+        <v>126</v>
+      </c>
+      <c r="F75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" t="s">
+        <v>126</v>
+      </c>
+      <c r="F93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s">
+        <v>130</v>
+      </c>
+      <c r="D101" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103" t="s">
+        <v>136</v>
+      </c>
+      <c r="E103" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" t="s">
+        <v>136</v>
+      </c>
+      <c r="E104" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" t="s">
+        <v>136</v>
+      </c>
+      <c r="E105" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" t="s">
+        <v>127</v>
+      </c>
+      <c r="F106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" t="s">
+        <v>123</v>
+      </c>
+      <c r="D107" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" t="s">
+        <v>127</v>
+      </c>
+      <c r="F107" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D72" xr:uid="{076E19BD-AA5B-475C-9E41-86F5F43468AD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B159F9F-DD13-45E6-99C1-C434142F238D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77356413-9F7D-4198-B66F-6E6C60DC80EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$101</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="205">
   <si>
     <t>字段名称</t>
   </si>
@@ -394,9 +394,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>…………</t>
-  </si>
-  <si>
     <t>num_prev_ip_prov</t>
   </si>
   <si>
@@ -554,6 +551,93 @@
   </si>
   <si>
     <t>Done (test)</t>
+  </si>
+  <si>
+    <t>num_prev_cert_prov</t>
+  </si>
+  <si>
+    <t>num_prev_card_bin_prov</t>
+  </si>
+  <si>
+    <t>num_prev_card_mobile_prov</t>
+  </si>
+  <si>
+    <t>num_prev_card_cert_prov</t>
+  </si>
+  <si>
+    <t>num_prev_province</t>
+  </si>
+  <si>
+    <t>num_prev_ip_city</t>
+  </si>
+  <si>
+    <t>num_prev_cert_city</t>
+  </si>
+  <si>
+    <t>num_prev_card_bin_city</t>
+  </si>
+  <si>
+    <t>num_prev_card_mobile_city</t>
+  </si>
+  <si>
+    <t>num_prev_card_cert_city</t>
+  </si>
+  <si>
+    <t>num_prev_city</t>
+  </si>
+  <si>
+    <t>num_prev_client_ip</t>
+  </si>
+  <si>
+    <t>num_prev_network</t>
+  </si>
+  <si>
+    <t>num_prev_device_sign</t>
+  </si>
+  <si>
+    <t>num_prev_info_1</t>
+  </si>
+  <si>
+    <t>num_prev_info_2</t>
+  </si>
+  <si>
+    <t>num_prev_is_one_people</t>
+  </si>
+  <si>
+    <t>num_prev_mobile_oper_platform</t>
+  </si>
+  <si>
+    <t>num_prev_operation_channel</t>
+  </si>
+  <si>
+    <t>num_prev_pay_scene</t>
+  </si>
+  <si>
+    <t>num_prev_card_cert_no</t>
+  </si>
+  <si>
+    <t>num_prev_opposing_id</t>
+  </si>
+  <si>
+    <t>num_prev_income_card_no</t>
+  </si>
+  <si>
+    <t>num_prev_income_card_cert_no</t>
+  </si>
+  <si>
+    <t>num_prev_income_card_mobile</t>
+  </si>
+  <si>
+    <t>num_prev_income_card_bank_code</t>
+  </si>
+  <si>
+    <t>num_prev_is_peer_pay</t>
+  </si>
+  <si>
+    <t>num_prev_version</t>
+  </si>
+  <si>
+    <t>see above</t>
   </si>
 </sst>
 </file>
@@ -603,7 +687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +745,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -707,7 +803,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -746,6 +842,20 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1029,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,10 +1169,10 @@
         <v>77</v>
       </c>
       <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
         <v>175</v>
-      </c>
-      <c r="F1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,10 +1183,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,10 +1200,10 @@
         <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,10 +1217,10 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1124,10 +1234,10 @@
         <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,10 +1254,10 @@
         <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,10 +1271,10 @@
         <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,10 +1291,10 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,10 +1311,10 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,10 +1328,10 @@
         <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,10 +1345,10 @@
         <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,10 +1362,10 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,10 +1379,10 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,10 +1399,10 @@
         <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,10 +1419,10 @@
         <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,10 +1436,10 @@
         <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,10 +1453,10 @@
         <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,10 +1473,10 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,10 +1493,10 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,10 +1513,10 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,10 +1530,10 @@
         <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,10 +1547,10 @@
         <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,10 +1564,10 @@
         <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,10 +1581,10 @@
         <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,10 +1598,10 @@
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,10 +1615,10 @@
         <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1522,10 +1632,10 @@
         <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,10 +1649,10 @@
         <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1556,10 +1666,10 @@
         <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,10 +1683,10 @@
         <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1590,10 +1700,10 @@
         <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,10 +1717,10 @@
         <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,10 +1734,10 @@
         <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,10 +1751,10 @@
         <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,484 +1768,573 @@
         <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" t="s">
-        <v>126</v>
+      <c r="D36" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>85</v>
       </c>
+      <c r="C37" t="s">
+        <v>204</v>
+      </c>
       <c r="D37" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="C38" t="s">
+        <v>204</v>
+      </c>
       <c r="D38" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>87</v>
       </c>
+      <c r="C39" t="s">
+        <v>204</v>
+      </c>
       <c r="D39" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>88</v>
       </c>
+      <c r="C40" t="s">
+        <v>204</v>
+      </c>
       <c r="D40" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="C41" t="s">
+        <v>204</v>
+      </c>
       <c r="D41" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="C42" t="s">
+        <v>204</v>
+      </c>
       <c r="D42" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>91</v>
       </c>
+      <c r="C43" t="s">
+        <v>204</v>
+      </c>
       <c r="D43" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>92</v>
       </c>
+      <c r="C44" t="s">
+        <v>204</v>
+      </c>
       <c r="D44" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="C45" t="s">
+        <v>204</v>
+      </c>
       <c r="D45" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="C46" t="s">
+        <v>204</v>
+      </c>
       <c r="D46" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>95</v>
       </c>
+      <c r="C47" t="s">
+        <v>204</v>
+      </c>
       <c r="D47" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
+      <c r="C48" t="s">
+        <v>204</v>
+      </c>
       <c r="D48" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>97</v>
       </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
       <c r="D49" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>98</v>
       </c>
+      <c r="C50" t="s">
+        <v>204</v>
+      </c>
       <c r="D50" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>99</v>
       </c>
+      <c r="C51" t="s">
+        <v>204</v>
+      </c>
       <c r="D51" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>100</v>
       </c>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
       <c r="D52" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>101</v>
       </c>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
       <c r="D53" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="C54" t="s">
+        <v>204</v>
+      </c>
       <c r="D54" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>103</v>
       </c>
+      <c r="C55" t="s">
+        <v>204</v>
+      </c>
       <c r="D55" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>104</v>
       </c>
+      <c r="C56" t="s">
+        <v>204</v>
+      </c>
       <c r="D56" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>105</v>
       </c>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
       <c r="D57" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>106</v>
       </c>
+      <c r="C58" t="s">
+        <v>204</v>
+      </c>
       <c r="D58" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>107</v>
       </c>
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
       <c r="D59" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>108</v>
       </c>
+      <c r="C60" t="s">
+        <v>204</v>
+      </c>
       <c r="D60" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>109</v>
       </c>
+      <c r="C61" t="s">
+        <v>204</v>
+      </c>
       <c r="D61" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>110</v>
       </c>
+      <c r="C62" t="s">
+        <v>204</v>
+      </c>
       <c r="D62" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>111</v>
       </c>
+      <c r="C63" t="s">
+        <v>204</v>
+      </c>
       <c r="D63" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>112</v>
       </c>
+      <c r="C64" t="s">
+        <v>204</v>
+      </c>
       <c r="D64" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>113</v>
       </c>
+      <c r="C65" t="s">
+        <v>204</v>
+      </c>
       <c r="D65" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E66" t="s">
-        <v>126</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
+      <c r="E66" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" t="s">
         <v>141</v>
-      </c>
-      <c r="C67" t="s">
-        <v>142</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
         <v>143</v>
-      </c>
-      <c r="C68" t="s">
-        <v>144</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2143,459 +2342,545 @@
         <v>117</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D69" t="s">
         <v>118</v>
       </c>
       <c r="E69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
         <v>145</v>
-      </c>
-      <c r="C70" t="s">
-        <v>146</v>
       </c>
       <c r="D70" t="s">
         <v>118</v>
       </c>
       <c r="E70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C71" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" t="s">
-        <v>126</v>
-      </c>
-      <c r="F71" t="s">
-        <v>127</v>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>204</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="C73" t="s">
+        <v>204</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
+        <v>204</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>204</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="C76" t="s">
+        <v>204</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="C78" t="s">
+        <v>204</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
+        <v>204</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="C80" t="s">
+        <v>204</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="C81" t="s">
+        <v>204</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="C82" t="s">
+        <v>204</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="C83" t="s">
+        <v>204</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>204</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>204</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="C86" t="s">
+        <v>204</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="C87" t="s">
+        <v>204</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="C88" t="s">
+        <v>204</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="C89" t="s">
+        <v>204</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="C90" t="s">
+        <v>204</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
+        <v>204</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="C92" t="s">
+        <v>204</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="C93" t="s">
+        <v>204</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C94" t="s">
+        <v>204</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="C95" t="s">
+        <v>204</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="C96" t="s">
+        <v>204</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="C98" t="s">
+        <v>204</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="C99" t="s">
+        <v>204</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C100" t="s">
-        <v>129</v>
-      </c>
-      <c r="D100" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F100" t="s">
-        <v>127</v>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2603,118 +2888,579 @@
         <v>120</v>
       </c>
       <c r="C101" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" t="s">
         <v>138</v>
       </c>
-      <c r="C102" t="s">
-        <v>139</v>
-      </c>
       <c r="D102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E103" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C106" t="s">
+        <v>204</v>
+      </c>
+      <c r="D106" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" t="s">
+        <v>204</v>
+      </c>
+      <c r="D109" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" t="s">
+        <v>204</v>
+      </c>
+      <c r="D110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" t="s">
+        <v>204</v>
+      </c>
+      <c r="D111" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" t="s">
+        <v>204</v>
+      </c>
+      <c r="D112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" t="s">
+        <v>204</v>
+      </c>
+      <c r="D114" t="s">
+        <v>135</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" t="s">
+        <v>204</v>
+      </c>
+      <c r="D115" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C116" t="s">
+        <v>204</v>
+      </c>
+      <c r="D116" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" t="s">
+        <v>204</v>
+      </c>
+      <c r="D117" t="s">
+        <v>135</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C118" t="s">
+        <v>204</v>
+      </c>
+      <c r="D118" t="s">
+        <v>135</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" t="s">
+        <v>135</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F119" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" t="s">
+        <v>204</v>
+      </c>
+      <c r="D120" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C121" t="s">
+        <v>204</v>
+      </c>
+      <c r="D121" t="s">
+        <v>135</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" t="s">
+        <v>135</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" t="s">
+        <v>204</v>
+      </c>
+      <c r="D123" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" t="s">
+        <v>204</v>
+      </c>
+      <c r="D124" t="s">
+        <v>135</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F124" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C125" t="s">
+        <v>204</v>
+      </c>
+      <c r="D125" t="s">
+        <v>135</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C126" t="s">
+        <v>204</v>
+      </c>
+      <c r="D126" t="s">
+        <v>135</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C127" t="s">
+        <v>204</v>
+      </c>
+      <c r="D127" t="s">
+        <v>135</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D128" t="s">
+        <v>135</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" t="s">
+        <v>204</v>
+      </c>
+      <c r="D129" t="s">
+        <v>135</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F129" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" t="s">
+        <v>204</v>
+      </c>
+      <c r="D130" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" t="s">
+        <v>204</v>
+      </c>
+      <c r="D131" t="s">
+        <v>135</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F131" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" t="s">
+        <v>204</v>
+      </c>
+      <c r="D132" t="s">
+        <v>135</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F132" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C104" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" t="s">
-        <v>136</v>
-      </c>
-      <c r="E104" t="s">
-        <v>127</v>
-      </c>
-      <c r="F104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="B133" s="22"/>
+      <c r="C133" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C105" t="s">
-        <v>123</v>
-      </c>
-      <c r="D105" t="s">
-        <v>136</v>
-      </c>
-      <c r="E105" t="s">
-        <v>127</v>
-      </c>
-      <c r="F105" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="C134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D134" t="s">
         <v>132</v>
       </c>
-      <c r="D106" t="s">
-        <v>133</v>
-      </c>
-      <c r="E106" t="s">
-        <v>127</v>
-      </c>
-      <c r="F106" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" t="s">
-        <v>123</v>
-      </c>
-      <c r="D107" t="s">
-        <v>133</v>
-      </c>
-      <c r="E107" t="s">
-        <v>127</v>
-      </c>
-      <c r="F107" t="s">
-        <v>127</v>
+      <c r="E134" t="s">
+        <v>126</v>
+      </c>
+      <c r="F134" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77356413-9F7D-4198-B66F-6E6C60DC80EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1D4615-C6B4-46F1-BE6A-81993538052A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="235">
   <si>
     <t>字段名称</t>
   </si>
@@ -265,12 +265,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Binary Category</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
     <t>Class label</t>
   </si>
   <si>
@@ -391,9 +385,6 @@
     <t>ip_prov_vs_prev</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>num_prev_ip_prov</t>
   </si>
   <si>
@@ -638,13 +629,112 @@
   </si>
   <si>
     <t>see above</t>
+  </si>
+  <si>
+    <t>cert_prov_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>card_bin_prov_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>card_mobile_prov_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>card_cert_prov_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>province_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>ip_city_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>cert_city_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>card_bin_city_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>card_mobile_city_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>card_cert_city_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>city_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>client_ip_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>network_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>device_sign_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>info_1_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>info_2_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>is_one_people_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>mobile_oper_platform_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>operation_channel_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>pay_scene_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>card_cert_no_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>opposing_id_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>income_card_no_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>income_card_cert_no_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>income_card_mobile_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>income_card_bank_code_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>is_peer_pay_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>version_ratio_among_prev</t>
+  </si>
+  <si>
+    <t>Binary Category (NOT NULLABLE)</t>
+  </si>
+  <si>
+    <t>Category (NOT NULLABLE)</t>
+  </si>
+  <si>
+    <t>Numeric (NOT NULLABLE)</t>
+  </si>
+  <si>
+    <t>Category (Almost NULL)</t>
+  </si>
+  <si>
+    <t>Binary Category (Almost NULL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +772,20 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -803,7 +907,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -827,9 +931,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -856,6 +957,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1139,18 +1258,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="119.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -1169,10 +1288,10 @@
         <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,10 +1302,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,10 +1319,10 @@
         <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1217,10 +1336,10 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,10 +1353,10 @@
         <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1254,10 +1373,10 @@
         <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,10 +1390,10 @@
         <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,16 +1404,16 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,16 +1424,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1328,10 +1447,10 @@
         <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,10 +1464,10 @@
         <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1362,10 +1481,10 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,10 +1498,10 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,10 +1518,10 @@
         <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1419,10 +1538,10 @@
         <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,10 +1555,10 @@
         <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,10 +1572,10 @@
         <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,10 +1592,10 @@
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,10 +1612,10 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,13 +1629,13 @@
         <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1527,13 +1646,13 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,13 +1663,13 @@
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,13 +1680,13 @@
         <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1578,13 +1697,13 @@
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,10 +1717,10 @@
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1615,10 +1734,10 @@
         <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1629,13 +1748,13 @@
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,13 +1765,13 @@
         <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,13 +1782,13 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1680,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1697,13 +1816,13 @@
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1714,13 +1833,13 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,13 +1850,13 @@
         <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,10 +1870,10 @@
         <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,1702 +1884,2161 @@
         <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>125</v>
+        <v>82</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>133</v>
+        <v>201</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" t="s">
+        <v>122</v>
+      </c>
+      <c r="F78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" t="s">
+        <v>122</v>
+      </c>
+      <c r="F79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" t="s">
+        <v>122</v>
+      </c>
+      <c r="F80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" t="s">
+        <v>122</v>
+      </c>
+      <c r="F83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" t="s">
+        <v>122</v>
+      </c>
+      <c r="F84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" t="s">
+        <v>122</v>
+      </c>
+      <c r="F86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" t="s">
+        <v>122</v>
+      </c>
+      <c r="F87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" t="s">
+        <v>122</v>
+      </c>
+      <c r="F88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" t="s">
+        <v>122</v>
+      </c>
+      <c r="F91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" t="s">
+        <v>122</v>
+      </c>
+      <c r="F93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" t="s">
+        <v>122</v>
+      </c>
+      <c r="F96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" t="s">
+        <v>122</v>
+      </c>
+      <c r="F97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E98" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E99" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" t="s">
+        <v>132</v>
+      </c>
+      <c r="E101" t="s">
+        <v>122</v>
+      </c>
+      <c r="F101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" t="s">
+        <v>132</v>
+      </c>
+      <c r="E102" t="s">
+        <v>122</v>
+      </c>
+      <c r="F102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" t="s">
+        <v>132</v>
+      </c>
+      <c r="E103" t="s">
+        <v>122</v>
+      </c>
+      <c r="F103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C106" t="s">
+        <v>201</v>
+      </c>
+      <c r="D106" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" t="s">
+        <v>201</v>
+      </c>
+      <c r="D107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F107" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C108" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F108" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C111" t="s">
+        <v>201</v>
+      </c>
+      <c r="D111" t="s">
+        <v>132</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F111" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C112" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" t="s">
+        <v>201</v>
+      </c>
+      <c r="D113" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" t="s">
+        <v>201</v>
+      </c>
+      <c r="D115" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C116" t="s">
+        <v>201</v>
+      </c>
+      <c r="D116" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F116" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F117" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C118" t="s">
+        <v>201</v>
+      </c>
+      <c r="D118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C119" t="s">
+        <v>201</v>
+      </c>
+      <c r="D119" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" t="s">
+        <v>201</v>
+      </c>
+      <c r="D120" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" t="s">
+        <v>201</v>
+      </c>
+      <c r="D121" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F121" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" t="s">
+        <v>201</v>
+      </c>
+      <c r="D122" t="s">
+        <v>132</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C123" t="s">
+        <v>201</v>
+      </c>
+      <c r="D123" t="s">
+        <v>132</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C124" t="s">
+        <v>201</v>
+      </c>
+      <c r="D124" t="s">
+        <v>132</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C125" t="s">
+        <v>201</v>
+      </c>
+      <c r="D125" t="s">
+        <v>132</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" t="s">
+        <v>201</v>
+      </c>
+      <c r="D126" t="s">
+        <v>132</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F126" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C127" t="s">
+        <v>201</v>
+      </c>
+      <c r="D127" t="s">
+        <v>132</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F127" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C128" t="s">
+        <v>201</v>
+      </c>
+      <c r="D128" t="s">
+        <v>132</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F128" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C129" t="s">
+        <v>201</v>
+      </c>
+      <c r="D129" t="s">
+        <v>132</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F129" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C130" t="s">
+        <v>201</v>
+      </c>
+      <c r="D130" t="s">
+        <v>132</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C131" t="s">
+        <v>201</v>
+      </c>
+      <c r="D131" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F131" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C132" t="s">
+        <v>201</v>
+      </c>
+      <c r="D132" t="s">
+        <v>132</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C134" t="s">
+        <v>201</v>
+      </c>
+      <c r="D134" t="s">
+        <v>129</v>
+      </c>
+      <c r="E134" t="s">
+        <v>123</v>
+      </c>
+      <c r="F134" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C135" t="s">
+        <v>201</v>
+      </c>
+      <c r="D135" t="s">
+        <v>129</v>
+      </c>
+      <c r="E135" t="s">
+        <v>123</v>
+      </c>
+      <c r="F135" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" t="s">
-        <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" t="s">
-        <v>125</v>
-      </c>
-      <c r="F68" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" t="s">
-        <v>125</v>
-      </c>
-      <c r="F69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" t="s">
-        <v>125</v>
-      </c>
-      <c r="F70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="s">
-        <v>204</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" t="s">
-        <v>125</v>
-      </c>
-      <c r="F72" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" t="s">
-        <v>204</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" t="s">
-        <v>204</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74" t="s">
-        <v>125</v>
-      </c>
-      <c r="F74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F75" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" t="s">
-        <v>204</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E76" t="s">
-        <v>125</v>
-      </c>
-      <c r="F76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" t="s">
-        <v>204</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" t="s">
-        <v>125</v>
-      </c>
-      <c r="F77" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" t="s">
-        <v>204</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E78" t="s">
-        <v>125</v>
-      </c>
-      <c r="F78" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" t="s">
-        <v>204</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" t="s">
-        <v>125</v>
-      </c>
-      <c r="F79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" t="s">
-        <v>204</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E80" t="s">
-        <v>125</v>
-      </c>
-      <c r="F80" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" t="s">
-        <v>204</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E81" t="s">
-        <v>125</v>
-      </c>
-      <c r="F81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" t="s">
-        <v>204</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E82" t="s">
-        <v>125</v>
-      </c>
-      <c r="F82" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" t="s">
-        <v>204</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E83" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" t="s">
-        <v>204</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E84" t="s">
-        <v>125</v>
-      </c>
-      <c r="F84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" t="s">
-        <v>204</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" t="s">
-        <v>125</v>
-      </c>
-      <c r="F85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C86" t="s">
-        <v>204</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" t="s">
-        <v>125</v>
-      </c>
-      <c r="F86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" t="s">
-        <v>204</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E87" t="s">
-        <v>125</v>
-      </c>
-      <c r="F87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E88" t="s">
-        <v>125</v>
-      </c>
-      <c r="F88" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" t="s">
-        <v>204</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E89" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" t="s">
-        <v>204</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E90" t="s">
-        <v>125</v>
-      </c>
-      <c r="F90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" t="s">
-        <v>125</v>
-      </c>
-      <c r="F91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C92" t="s">
-        <v>204</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" t="s">
-        <v>125</v>
-      </c>
-      <c r="F92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C93" t="s">
-        <v>204</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" t="s">
-        <v>125</v>
-      </c>
-      <c r="F93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" t="s">
-        <v>204</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" t="s">
-        <v>125</v>
-      </c>
-      <c r="F94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" t="s">
-        <v>204</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E95" t="s">
-        <v>125</v>
-      </c>
-      <c r="F95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" t="s">
-        <v>204</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" t="s">
-        <v>125</v>
-      </c>
-      <c r="F96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C97" t="s">
-        <v>204</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" t="s">
-        <v>125</v>
-      </c>
-      <c r="F97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" t="s">
-        <v>204</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E98" t="s">
-        <v>125</v>
-      </c>
-      <c r="F98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" t="s">
-        <v>204</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E99" t="s">
-        <v>125</v>
-      </c>
-      <c r="F99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F100" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="C136" t="s">
+        <v>201</v>
+      </c>
+      <c r="D136" t="s">
         <v>129</v>
       </c>
-      <c r="D101" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" t="s">
-        <v>125</v>
-      </c>
-      <c r="F101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102" t="s">
-        <v>138</v>
-      </c>
-      <c r="D102" t="s">
-        <v>135</v>
-      </c>
-      <c r="E102" t="s">
-        <v>125</v>
-      </c>
-      <c r="F102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C103" t="s">
-        <v>139</v>
-      </c>
-      <c r="D103" t="s">
-        <v>135</v>
-      </c>
-      <c r="E103" t="s">
-        <v>125</v>
-      </c>
-      <c r="F103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C105" t="s">
-        <v>204</v>
-      </c>
-      <c r="D105" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F105" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C106" t="s">
-        <v>204</v>
-      </c>
-      <c r="D106" t="s">
-        <v>135</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F106" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C107" t="s">
-        <v>204</v>
-      </c>
-      <c r="D107" t="s">
-        <v>135</v>
-      </c>
-      <c r="E107" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C108" t="s">
-        <v>204</v>
-      </c>
-      <c r="D108" t="s">
-        <v>135</v>
-      </c>
-      <c r="E108" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" t="s">
-        <v>204</v>
-      </c>
-      <c r="D109" t="s">
-        <v>135</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C110" t="s">
-        <v>204</v>
-      </c>
-      <c r="D110" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C111" t="s">
-        <v>204</v>
-      </c>
-      <c r="D111" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C112" t="s">
-        <v>204</v>
-      </c>
-      <c r="D112" t="s">
-        <v>135</v>
-      </c>
-      <c r="E112" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C113" t="s">
-        <v>204</v>
-      </c>
-      <c r="D113" t="s">
-        <v>135</v>
-      </c>
-      <c r="E113" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C114" t="s">
-        <v>204</v>
-      </c>
-      <c r="D114" t="s">
-        <v>135</v>
-      </c>
-      <c r="E114" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" t="s">
-        <v>204</v>
-      </c>
-      <c r="D115" t="s">
-        <v>135</v>
-      </c>
-      <c r="E115" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C116" t="s">
-        <v>204</v>
-      </c>
-      <c r="D116" t="s">
-        <v>135</v>
-      </c>
-      <c r="E116" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C117" t="s">
-        <v>204</v>
-      </c>
-      <c r="D117" t="s">
-        <v>135</v>
-      </c>
-      <c r="E117" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F117" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C118" t="s">
-        <v>204</v>
-      </c>
-      <c r="D118" t="s">
-        <v>135</v>
-      </c>
-      <c r="E118" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F118" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C119" t="s">
-        <v>204</v>
-      </c>
-      <c r="D119" t="s">
-        <v>135</v>
-      </c>
-      <c r="E119" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F119" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C120" t="s">
-        <v>204</v>
-      </c>
-      <c r="D120" t="s">
-        <v>135</v>
-      </c>
-      <c r="E120" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F120" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C121" t="s">
-        <v>204</v>
-      </c>
-      <c r="D121" t="s">
-        <v>135</v>
-      </c>
-      <c r="E121" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F121" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C122" t="s">
-        <v>204</v>
-      </c>
-      <c r="D122" t="s">
-        <v>135</v>
-      </c>
-      <c r="E122" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F122" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C123" t="s">
-        <v>204</v>
-      </c>
-      <c r="D123" t="s">
-        <v>135</v>
-      </c>
-      <c r="E123" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C124" t="s">
-        <v>204</v>
-      </c>
-      <c r="D124" t="s">
-        <v>135</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F124" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C125" t="s">
-        <v>204</v>
-      </c>
-      <c r="D125" t="s">
-        <v>135</v>
-      </c>
-      <c r="E125" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F125" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C126" t="s">
-        <v>204</v>
-      </c>
-      <c r="D126" t="s">
-        <v>135</v>
-      </c>
-      <c r="E126" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F126" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C127" t="s">
-        <v>204</v>
-      </c>
-      <c r="D127" t="s">
-        <v>135</v>
-      </c>
-      <c r="E127" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C128" t="s">
-        <v>204</v>
-      </c>
-      <c r="D128" t="s">
-        <v>135</v>
-      </c>
-      <c r="E128" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F128" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C129" t="s">
-        <v>204</v>
-      </c>
-      <c r="D129" t="s">
-        <v>135</v>
-      </c>
-      <c r="E129" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F129" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C130" t="s">
-        <v>204</v>
-      </c>
-      <c r="D130" t="s">
-        <v>135</v>
-      </c>
-      <c r="E130" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F130" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C131" t="s">
-        <v>204</v>
-      </c>
-      <c r="D131" t="s">
-        <v>135</v>
-      </c>
-      <c r="E131" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F131" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C132" t="s">
-        <v>204</v>
-      </c>
-      <c r="D132" t="s">
-        <v>135</v>
-      </c>
-      <c r="E132" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F132" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B133" s="22"/>
-      <c r="C133" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E133" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F133" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C134" t="s">
-        <v>204</v>
-      </c>
-      <c r="D134" t="s">
-        <v>132</v>
-      </c>
-      <c r="E134" t="s">
-        <v>126</v>
-      </c>
-      <c r="F134" t="s">
-        <v>126</v>
+      <c r="E136" t="s">
+        <v>123</v>
+      </c>
+      <c r="F136" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137" t="s">
+        <v>201</v>
+      </c>
+      <c r="D137" t="s">
+        <v>129</v>
+      </c>
+      <c r="E137" t="s">
+        <v>123</v>
+      </c>
+      <c r="F137" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C138" t="s">
+        <v>201</v>
+      </c>
+      <c r="D138" t="s">
+        <v>129</v>
+      </c>
+      <c r="E138" t="s">
+        <v>123</v>
+      </c>
+      <c r="F138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C139" t="s">
+        <v>201</v>
+      </c>
+      <c r="D139" t="s">
+        <v>129</v>
+      </c>
+      <c r="E139" t="s">
+        <v>123</v>
+      </c>
+      <c r="F139" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" t="s">
+        <v>201</v>
+      </c>
+      <c r="D140" t="s">
+        <v>129</v>
+      </c>
+      <c r="E140" t="s">
+        <v>123</v>
+      </c>
+      <c r="F140" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C141" t="s">
+        <v>201</v>
+      </c>
+      <c r="D141" t="s">
+        <v>129</v>
+      </c>
+      <c r="E141" t="s">
+        <v>123</v>
+      </c>
+      <c r="F141" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C142" t="s">
+        <v>201</v>
+      </c>
+      <c r="D142" t="s">
+        <v>129</v>
+      </c>
+      <c r="E142" t="s">
+        <v>123</v>
+      </c>
+      <c r="F142" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C143" t="s">
+        <v>201</v>
+      </c>
+      <c r="D143" t="s">
+        <v>129</v>
+      </c>
+      <c r="E143" t="s">
+        <v>123</v>
+      </c>
+      <c r="F143" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C144" t="s">
+        <v>201</v>
+      </c>
+      <c r="D144" t="s">
+        <v>129</v>
+      </c>
+      <c r="E144" t="s">
+        <v>123</v>
+      </c>
+      <c r="F144" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C145" t="s">
+        <v>201</v>
+      </c>
+      <c r="D145" t="s">
+        <v>129</v>
+      </c>
+      <c r="E145" t="s">
+        <v>123</v>
+      </c>
+      <c r="F145" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C146" t="s">
+        <v>201</v>
+      </c>
+      <c r="D146" t="s">
+        <v>129</v>
+      </c>
+      <c r="E146" t="s">
+        <v>123</v>
+      </c>
+      <c r="F146" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C147" t="s">
+        <v>201</v>
+      </c>
+      <c r="D147" t="s">
+        <v>129</v>
+      </c>
+      <c r="E147" t="s">
+        <v>123</v>
+      </c>
+      <c r="F147" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148" t="s">
+        <v>201</v>
+      </c>
+      <c r="D148" t="s">
+        <v>129</v>
+      </c>
+      <c r="E148" t="s">
+        <v>123</v>
+      </c>
+      <c r="F148" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C149" t="s">
+        <v>201</v>
+      </c>
+      <c r="D149" t="s">
+        <v>129</v>
+      </c>
+      <c r="E149" t="s">
+        <v>123</v>
+      </c>
+      <c r="F149" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C150" t="s">
+        <v>201</v>
+      </c>
+      <c r="D150" t="s">
+        <v>129</v>
+      </c>
+      <c r="E150" t="s">
+        <v>123</v>
+      </c>
+      <c r="F150" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C151" t="s">
+        <v>201</v>
+      </c>
+      <c r="D151" t="s">
+        <v>129</v>
+      </c>
+      <c r="E151" t="s">
+        <v>123</v>
+      </c>
+      <c r="F151" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C152" t="s">
+        <v>201</v>
+      </c>
+      <c r="D152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E152" t="s">
+        <v>123</v>
+      </c>
+      <c r="F152" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" t="s">
+        <v>201</v>
+      </c>
+      <c r="D153" t="s">
+        <v>129</v>
+      </c>
+      <c r="E153" t="s">
+        <v>123</v>
+      </c>
+      <c r="F153" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C154" t="s">
+        <v>201</v>
+      </c>
+      <c r="D154" t="s">
+        <v>129</v>
+      </c>
+      <c r="E154" t="s">
+        <v>123</v>
+      </c>
+      <c r="F154" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C155" t="s">
+        <v>201</v>
+      </c>
+      <c r="D155" t="s">
+        <v>129</v>
+      </c>
+      <c r="E155" t="s">
+        <v>123</v>
+      </c>
+      <c r="F155" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C156" t="s">
+        <v>201</v>
+      </c>
+      <c r="D156" t="s">
+        <v>129</v>
+      </c>
+      <c r="E156" t="s">
+        <v>123</v>
+      </c>
+      <c r="F156" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C157" t="s">
+        <v>201</v>
+      </c>
+      <c r="D157" t="s">
+        <v>129</v>
+      </c>
+      <c r="E157" t="s">
+        <v>123</v>
+      </c>
+      <c r="F157" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C158" t="s">
+        <v>201</v>
+      </c>
+      <c r="D158" t="s">
+        <v>129</v>
+      </c>
+      <c r="E158" t="s">
+        <v>123</v>
+      </c>
+      <c r="F158" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C159" t="s">
+        <v>201</v>
+      </c>
+      <c r="D159" t="s">
+        <v>129</v>
+      </c>
+      <c r="E159" t="s">
+        <v>123</v>
+      </c>
+      <c r="F159" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C160" t="s">
+        <v>201</v>
+      </c>
+      <c r="D160" t="s">
+        <v>129</v>
+      </c>
+      <c r="E160" t="s">
+        <v>123</v>
+      </c>
+      <c r="F160" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C161" t="s">
+        <v>201</v>
+      </c>
+      <c r="D161" t="s">
+        <v>129</v>
+      </c>
+      <c r="E161" t="s">
+        <v>123</v>
+      </c>
+      <c r="F161" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1D4615-C6B4-46F1-BE6A-81993538052A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D956193-B63C-4757-B7BA-D57EC652E7A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="236">
   <si>
     <t>字段名称</t>
   </si>
@@ -412,9 +412,6 @@
     <t>indicate the percentage of current transaction ip_prov among all transaction ip_prov of this user (e.g. 0.4, 0.5, 0.97)</t>
   </si>
   <si>
-    <t xml:space="preserve">numeric (0~1), -1 indicating NA </t>
-  </si>
-  <si>
     <t>-1,0,1 (-1 indicating NA)</t>
   </si>
   <si>
@@ -728,6 +725,12 @@
   </si>
   <si>
     <t>Binary Category (Almost NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric </t>
+  </si>
+  <si>
+    <t>numeric (0~1)</t>
   </si>
 </sst>
 </file>
@@ -907,7 +910,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -975,6 +978,7 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1260,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,10 +1292,10 @@
         <v>77</v>
       </c>
       <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
         <v>171</v>
-      </c>
-      <c r="F1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1629,7 +1633,7 @@
         <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
         <v>122</v>
@@ -1646,7 +1650,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
         <v>122</v>
@@ -1663,7 +1667,7 @@
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
         <v>122</v>
@@ -1680,7 +1684,7 @@
         <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
         <v>122</v>
@@ -1697,7 +1701,7 @@
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>122</v>
@@ -1748,7 +1752,7 @@
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
         <v>122</v>
@@ -1765,7 +1769,7 @@
         <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
         <v>122</v>
@@ -1782,7 +1786,7 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E29" t="s">
         <v>122</v>
@@ -1799,7 +1803,7 @@
         <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
         <v>122</v>
@@ -1816,7 +1820,7 @@
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E31" t="s">
         <v>122</v>
@@ -1833,7 +1837,7 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E32" t="s">
         <v>122</v>
@@ -1850,7 +1854,7 @@
         <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E33" t="s">
         <v>122</v>
@@ -1902,7 +1906,7 @@
         <v>112</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>122</v>
@@ -1916,10 +1920,10 @@
         <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
         <v>122</v>
@@ -1933,10 +1937,10 @@
         <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
         <v>122</v>
@@ -1950,10 +1954,10 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
         <v>122</v>
@@ -1967,10 +1971,10 @@
         <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
         <v>122</v>
@@ -1984,10 +1988,10 @@
         <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
         <v>122</v>
@@ -2001,10 +2005,10 @@
         <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
         <v>122</v>
@@ -2018,10 +2022,10 @@
         <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
         <v>122</v>
@@ -2035,10 +2039,10 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
         <v>122</v>
@@ -2052,10 +2056,10 @@
         <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
         <v>122</v>
@@ -2069,10 +2073,10 @@
         <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
         <v>122</v>
@@ -2086,10 +2090,10 @@
         <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
         <v>122</v>
@@ -2103,10 +2107,10 @@
         <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
         <v>122</v>
@@ -2120,10 +2124,10 @@
         <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E49" t="s">
         <v>122</v>
@@ -2137,10 +2141,10 @@
         <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50" t="s">
         <v>122</v>
@@ -2154,10 +2158,10 @@
         <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
         <v>122</v>
@@ -2171,10 +2175,10 @@
         <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
         <v>122</v>
@@ -2188,10 +2192,10 @@
         <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E53" t="s">
         <v>122</v>
@@ -2205,10 +2209,10 @@
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
         <v>122</v>
@@ -2222,10 +2226,10 @@
         <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
         <v>122</v>
@@ -2239,10 +2243,10 @@
         <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
         <v>122</v>
@@ -2256,10 +2260,10 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E57" t="s">
         <v>122</v>
@@ -2273,10 +2277,10 @@
         <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
         <v>122</v>
@@ -2290,10 +2294,10 @@
         <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
         <v>122</v>
@@ -2307,10 +2311,10 @@
         <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
         <v>122</v>
@@ -2324,10 +2328,10 @@
         <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E61" t="s">
         <v>122</v>
@@ -2341,10 +2345,10 @@
         <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E62" t="s">
         <v>122</v>
@@ -2358,10 +2362,10 @@
         <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E63" t="s">
         <v>122</v>
@@ -2375,10 +2379,10 @@
         <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
         <v>122</v>
@@ -2392,10 +2396,10 @@
         <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E65" t="s">
         <v>122</v>
@@ -2424,10 +2428,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
         <v>137</v>
-      </c>
-      <c r="C67" t="s">
-        <v>138</v>
       </c>
       <c r="D67" t="s">
         <v>116</v>
@@ -2441,10 +2445,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
         <v>139</v>
-      </c>
-      <c r="C68" t="s">
-        <v>140</v>
       </c>
       <c r="D68" t="s">
         <v>116</v>
@@ -2475,10 +2479,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
         <v>141</v>
-      </c>
-      <c r="C70" t="s">
-        <v>142</v>
       </c>
       <c r="D70" t="s">
         <v>116</v>
@@ -2499,7 +2503,7 @@
         <v>127</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>122</v>
@@ -2510,13 +2514,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E72" t="s">
         <v>122</v>
@@ -2527,13 +2531,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E73" t="s">
         <v>122</v>
@@ -2544,13 +2548,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74" t="s">
         <v>122</v>
@@ -2561,13 +2565,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E75" t="s">
         <v>122</v>
@@ -2578,13 +2582,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E76" t="s">
         <v>122</v>
@@ -2595,13 +2599,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E77" t="s">
         <v>122</v>
@@ -2612,13 +2616,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E78" t="s">
         <v>122</v>
@@ -2629,13 +2633,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
         <v>122</v>
@@ -2646,13 +2650,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E80" t="s">
         <v>122</v>
@@ -2663,13 +2667,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
         <v>122</v>
@@ -2680,13 +2684,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E82" t="s">
         <v>122</v>
@@ -2697,13 +2701,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s">
         <v>122</v>
@@ -2714,13 +2718,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E84" t="s">
         <v>122</v>
@@ -2731,13 +2735,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E85" t="s">
         <v>122</v>
@@ -2748,13 +2752,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E86" t="s">
         <v>122</v>
@@ -2765,13 +2769,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E87" t="s">
         <v>122</v>
@@ -2782,13 +2786,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E88" t="s">
         <v>122</v>
@@ -2799,13 +2803,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E89" t="s">
         <v>122</v>
@@ -2816,13 +2820,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E90" t="s">
         <v>122</v>
@@ -2833,13 +2837,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E91" t="s">
         <v>122</v>
@@ -2850,13 +2854,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E92" t="s">
         <v>122</v>
@@ -2867,13 +2871,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E93" t="s">
         <v>122</v>
@@ -2884,13 +2888,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E94" t="s">
         <v>122</v>
@@ -2901,13 +2905,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E95" t="s">
         <v>122</v>
@@ -2918,13 +2922,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E96" t="s">
         <v>122</v>
@@ -2935,13 +2939,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E97" t="s">
         <v>122</v>
@@ -2952,13 +2956,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E98" t="s">
         <v>122</v>
@@ -2969,13 +2973,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E99" t="s">
         <v>122</v>
@@ -2993,7 +2997,7 @@
         <v>125</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>122</v>
@@ -3010,7 +3014,7 @@
         <v>126</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E101" t="s">
         <v>122</v>
@@ -3021,13 +3025,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" t="s">
         <v>134</v>
       </c>
-      <c r="C102" t="s">
-        <v>135</v>
-      </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" t="s">
         <v>122</v>
@@ -3038,13 +3042,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E103" t="s">
         <v>122</v>
@@ -3059,10 +3063,10 @@
       </c>
       <c r="B104" s="22"/>
       <c r="C104" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="E104" s="22" t="s">
         <v>123</v>
@@ -3073,15 +3077,15 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E105" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F105" t="s">
@@ -3090,15 +3094,15 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
-      </c>
-      <c r="E106" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E106" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F106" t="s">
@@ -3107,15 +3111,15 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
-      </c>
-      <c r="E107" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E107" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F107" t="s">
@@ -3124,15 +3128,15 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
-      </c>
-      <c r="E108" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F108" t="s">
@@ -3141,15 +3145,15 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
-      </c>
-      <c r="E109" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F109" t="s">
@@ -3158,15 +3162,15 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
-      </c>
-      <c r="E110" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F110" t="s">
@@ -3175,15 +3179,15 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
-      </c>
-      <c r="E111" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F111" t="s">
@@ -3192,15 +3196,15 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
-      </c>
-      <c r="E112" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E112" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F112" t="s">
@@ -3209,15 +3213,15 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C113" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D113" t="s">
-        <v>132</v>
-      </c>
-      <c r="E113" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F113" t="s">
@@ -3226,15 +3230,15 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
-      </c>
-      <c r="E114" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F114" t="s">
@@ -3243,15 +3247,15 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C115" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
-      </c>
-      <c r="E115" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E115" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F115" t="s">
@@ -3260,15 +3264,15 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D116" t="s">
-        <v>132</v>
-      </c>
-      <c r="E116" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E116" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F116" t="s">
@@ -3277,15 +3281,15 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C117" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
-      </c>
-      <c r="E117" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E117" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F117" t="s">
@@ -3294,15 +3298,15 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D118" t="s">
-        <v>132</v>
-      </c>
-      <c r="E118" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E118" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F118" t="s">
@@ -3311,15 +3315,15 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D119" t="s">
-        <v>132</v>
-      </c>
-      <c r="E119" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E119" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F119" t="s">
@@ -3328,15 +3332,15 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D120" t="s">
-        <v>132</v>
-      </c>
-      <c r="E120" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E120" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F120" t="s">
@@ -3345,15 +3349,15 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C121" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D121" t="s">
-        <v>132</v>
-      </c>
-      <c r="E121" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E121" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F121" t="s">
@@ -3362,15 +3366,15 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D122" t="s">
-        <v>132</v>
-      </c>
-      <c r="E122" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E122" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F122" t="s">
@@ -3379,15 +3383,15 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C123" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D123" t="s">
-        <v>132</v>
-      </c>
-      <c r="E123" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E123" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F123" t="s">
@@ -3396,15 +3400,15 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D124" t="s">
-        <v>132</v>
-      </c>
-      <c r="E124" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E124" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F124" t="s">
@@ -3413,15 +3417,15 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
-      </c>
-      <c r="E125" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E125" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F125" t="s">
@@ -3430,15 +3434,15 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C126" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D126" t="s">
-        <v>132</v>
-      </c>
-      <c r="E126" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E126" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F126" t="s">
@@ -3447,15 +3451,15 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C127" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
-      </c>
-      <c r="E127" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E127" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F127" t="s">
@@ -3464,15 +3468,15 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C128" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
-      </c>
-      <c r="E128" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E128" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F128" t="s">
@@ -3481,15 +3485,15 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C129" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D129" t="s">
-        <v>132</v>
-      </c>
-      <c r="E129" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E129" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F129" t="s">
@@ -3498,15 +3502,15 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
-      </c>
-      <c r="E130" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E130" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F130" t="s">
@@ -3515,15 +3519,15 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C131" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D131" t="s">
-        <v>132</v>
-      </c>
-      <c r="E131" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E131" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F131" t="s">
@@ -3532,15 +3536,15 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C132" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D132" t="s">
-        <v>132</v>
-      </c>
-      <c r="E132" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E132" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F132" t="s">
@@ -3556,7 +3560,7 @@
         <v>128</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E133" s="21" t="s">
         <v>123</v>
@@ -3567,13 +3571,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C134" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D134" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E134" t="s">
         <v>123</v>
@@ -3584,13 +3588,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C135" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D135" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E135" t="s">
         <v>123</v>
@@ -3601,13 +3605,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D136" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E136" t="s">
         <v>123</v>
@@ -3618,13 +3622,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D137" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E137" t="s">
         <v>123</v>
@@ -3635,13 +3639,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C138" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D138" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E138" t="s">
         <v>123</v>
@@ -3652,13 +3656,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C139" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D139" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E139" t="s">
         <v>123</v>
@@ -3669,13 +3673,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C140" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D140" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E140" t="s">
         <v>123</v>
@@ -3686,13 +3690,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C141" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D141" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E141" t="s">
         <v>123</v>
@@ -3703,13 +3707,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C142" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D142" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E142" t="s">
         <v>123</v>
@@ -3720,13 +3724,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C143" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D143" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E143" t="s">
         <v>123</v>
@@ -3737,13 +3741,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C144" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D144" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E144" t="s">
         <v>123</v>
@@ -3754,13 +3758,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D145" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E145" t="s">
         <v>123</v>
@@ -3771,13 +3775,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D146" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E146" t="s">
         <v>123</v>
@@ -3788,13 +3792,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D147" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E147" t="s">
         <v>123</v>
@@ -3805,13 +3809,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D148" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E148" t="s">
         <v>123</v>
@@ -3822,13 +3826,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D149" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E149" t="s">
         <v>123</v>
@@ -3839,13 +3843,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C150" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D150" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E150" t="s">
         <v>123</v>
@@ -3856,13 +3860,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C151" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D151" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E151" t="s">
         <v>123</v>
@@ -3873,13 +3877,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C152" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D152" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E152" t="s">
         <v>123</v>
@@ -3890,13 +3894,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D153" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E153" t="s">
         <v>123</v>
@@ -3907,13 +3911,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C154" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D154" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E154" t="s">
         <v>123</v>
@@ -3924,13 +3928,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D155" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E155" t="s">
         <v>123</v>
@@ -3941,13 +3945,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C156" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D156" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E156" t="s">
         <v>123</v>
@@ -3958,13 +3962,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C157" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D157" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E157" t="s">
         <v>123</v>
@@ -3975,13 +3979,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D158" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E158" t="s">
         <v>123</v>
@@ -3992,13 +3996,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C159" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D159" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E159" t="s">
         <v>123</v>
@@ -4009,13 +4013,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C160" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D160" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E160" t="s">
         <v>123</v>
@@ -4026,13 +4030,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C161" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D161" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="E161" t="s">
         <v>123</v>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D956193-B63C-4757-B7BA-D57EC652E7A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6FF98-8698-4C8D-92D7-ACF128235532}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1264,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,7 +2509,7 @@
         <v>122</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,7 +2526,7 @@
         <v>122</v>
       </c>
       <c r="F72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>122</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>122</v>
       </c>
       <c r="F74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2577,7 +2577,7 @@
         <v>122</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,7 +2594,7 @@
         <v>122</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,7 +2611,7 @@
         <v>122</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
         <v>122</v>
       </c>
       <c r="F78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>122</v>
       </c>
       <c r="F79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2662,7 +2662,7 @@
         <v>122</v>
       </c>
       <c r="F80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>122</v>
       </c>
       <c r="F81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>122</v>
       </c>
       <c r="F82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,7 +2713,7 @@
         <v>122</v>
       </c>
       <c r="F83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2730,7 +2730,7 @@
         <v>122</v>
       </c>
       <c r="F84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2747,7 +2747,7 @@
         <v>122</v>
       </c>
       <c r="F85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>122</v>
       </c>
       <c r="F86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>122</v>
       </c>
       <c r="F87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>122</v>
       </c>
       <c r="F88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,7 +2815,7 @@
         <v>122</v>
       </c>
       <c r="F89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,7 +2832,7 @@
         <v>122</v>
       </c>
       <c r="F90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,7 +2849,7 @@
         <v>122</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
         <v>122</v>
       </c>
       <c r="F92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2883,7 +2883,7 @@
         <v>122</v>
       </c>
       <c r="F93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
         <v>122</v>
       </c>
       <c r="F94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,7 +2917,7 @@
         <v>122</v>
       </c>
       <c r="F95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,7 +2934,7 @@
         <v>122</v>
       </c>
       <c r="F96" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>122</v>
       </c>
       <c r="F97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,7 +2968,7 @@
         <v>122</v>
       </c>
       <c r="F98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,7 +2985,7 @@
         <v>122</v>
       </c>
       <c r="F99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3003,7 +3003,7 @@
         <v>122</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>122</v>
       </c>
       <c r="F101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3037,7 +3037,7 @@
         <v>122</v>
       </c>
       <c r="F102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3054,7 +3054,7 @@
         <v>122</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3563,10 +3563,10 @@
         <v>235</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3580,10 +3580,10 @@
         <v>235</v>
       </c>
       <c r="E134" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F134" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3597,10 +3597,10 @@
         <v>235</v>
       </c>
       <c r="E135" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F135" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3614,10 +3614,10 @@
         <v>235</v>
       </c>
       <c r="E136" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F136" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3631,10 +3631,10 @@
         <v>235</v>
       </c>
       <c r="E137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3648,10 +3648,10 @@
         <v>235</v>
       </c>
       <c r="E138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,10 +3665,10 @@
         <v>235</v>
       </c>
       <c r="E139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3682,10 +3682,10 @@
         <v>235</v>
       </c>
       <c r="E140" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F140" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3699,10 +3699,10 @@
         <v>235</v>
       </c>
       <c r="E141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3716,10 +3716,10 @@
         <v>235</v>
       </c>
       <c r="E142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3733,10 +3733,10 @@
         <v>235</v>
       </c>
       <c r="E143" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F143" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3750,10 +3750,10 @@
         <v>235</v>
       </c>
       <c r="E144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3767,10 +3767,10 @@
         <v>235</v>
       </c>
       <c r="E145" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F145" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,10 +3784,10 @@
         <v>235</v>
       </c>
       <c r="E146" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F146" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3801,10 +3801,10 @@
         <v>235</v>
       </c>
       <c r="E147" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F147" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3818,10 +3818,10 @@
         <v>235</v>
       </c>
       <c r="E148" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F148" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3835,10 +3835,10 @@
         <v>235</v>
       </c>
       <c r="E149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3852,10 +3852,10 @@
         <v>235</v>
       </c>
       <c r="E150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3869,10 +3869,10 @@
         <v>235</v>
       </c>
       <c r="E151" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F151" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3886,10 +3886,10 @@
         <v>235</v>
       </c>
       <c r="E152" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F152" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3903,10 +3903,10 @@
         <v>235</v>
       </c>
       <c r="E153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3920,10 +3920,10 @@
         <v>235</v>
       </c>
       <c r="E154" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F154" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3937,10 +3937,10 @@
         <v>235</v>
       </c>
       <c r="E155" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F155" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3954,10 +3954,10 @@
         <v>235</v>
       </c>
       <c r="E156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3971,10 +3971,10 @@
         <v>235</v>
       </c>
       <c r="E157" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F157" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3988,10 +3988,10 @@
         <v>235</v>
       </c>
       <c r="E158" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F158" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,10 +4005,10 @@
         <v>235</v>
       </c>
       <c r="E159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4022,10 +4022,10 @@
         <v>235</v>
       </c>
       <c r="E160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,10 +4039,10 @@
         <v>235</v>
       </c>
       <c r="E161" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F161" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
